--- a/profile/summary.xlsx
+++ b/profile/summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\PennHW\CIS565\Project1-CUDA-Flocking\profile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A3ABCA-CA89-4E1E-82B7-6C9670F6C0EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3398E7-F4BB-46E1-9D24-D340914990B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="1785" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="1785" windowWidth="38640" windowHeight="21240" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CompCUDAEvents_Boid" sheetId="1" r:id="rId1"/>
@@ -39763,7 +39763,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F4" workbookViewId="0">
       <selection activeCell="AH21" sqref="AH21"/>
     </sheetView>
   </sheetViews>
@@ -40763,7 +40763,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{501D8136-7A47-41E2-8378-5235355136A9}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="A1:H10"/>
     </sheetView>
   </sheetViews>
@@ -41923,7 +41923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D7F2606-8C58-47EA-A148-622CEC8E4980}">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="F26" sqref="F26:F29"/>
     </sheetView>
   </sheetViews>
@@ -43115,8 +43115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ECD4310-BCED-4C3C-BC11-F4AF929A36DB}">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AR41" sqref="AR41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
